--- a/biology/Zoologie/Gnathostomata_(classification_phylogénétique)/Gnathostomata_(classification_phylogénétique).xlsx
+++ b/biology/Zoologie/Gnathostomata_(classification_phylogénétique)/Gnathostomata_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gnathostomata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Gnathostomata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Gnathostomata (Gnathostomes, ou Vertébrés à mâchoires), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gnathostomata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Gnathostomata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -841,7 +855,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gnathostomata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Gnathostomata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,7 +873,9 @@
           <t>Débat scientifique relatif à la phylogénie des Gnathostomata</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La phylogénie des groupes actuels de Vertébrés à mâchoires fait l'objet d'un quasi consensus : caractère paraphylétique des Poissons  et des Reptiles, monophylie et parenté des groupes actuels : Chondrichthyens, Actinoptérygiens, Sarcoptérygiens et, au sein de ces derniers, Tétrapodes, Lissamphibiens, Amniotes, Tortues, Lépidosauriens, Archosauriens, Oiseaux au sein de ces derniers, Mammifères. Les Crossoptérygiens ont éclaté, révélant la plus proche parenté des Tétrapodes avec les Dipneustes plutôt qu'avec les Cœlacanthes.
 C'est la place des groupes fossiles qui pose encore très largement question. Ainsi en est-il 
@@ -977,7 +993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gnathostomata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Gnathostomata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -995,7 +1011,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Guo-Rui Zhang, Shi-Tao Wang, Jun-Qing Wang, Nian-Zhong Wang et Min Zhu : « A basal antiarch (placoderm fish) from the Silurian of Qujing, Yunnan, China », Palaeoworld, vol. 19, 2010, pp. 129-135
 Jing Lu et Min Zhu : « An onychodont fish (Osteichthyes, Sarcopterygii) from the Early Devonian of China, and the evolution of the Onychodontiformes », Proc. R. Soc. B, 2009
